--- a/public/cpmm-final.xlsx
+++ b/public/cpmm-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vanessa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Desktop\EMEAREPORT\my-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88271999-3967-4129-B1B4-E9A21F8A9561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1830FC2A-F5B9-4172-AC83-8417CBECB14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{066623EA-76BA-4FB8-A94D-1173B470C982}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{066623EA-76BA-4FB8-A94D-1173B470C982}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -129,13 +129,16 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,22 +520,22 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -590,7 +593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -619,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -648,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -677,7 +680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -706,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -726,16 +729,16 @@
         <v>27</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -743,7 +746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -751,7 +754,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -759,7 +762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -767,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -775,7 +778,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -783,7 +786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -798,7 +801,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -813,7 +816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -828,7 +831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -843,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -858,7 +861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -873,7 +876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -881,7 +884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -889,7 +892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -897,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -905,7 +908,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -913,7 +916,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
